--- a/03_datos_limpios/juarez.xlsx
+++ b/03_datos_limpios/juarez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socan\Documents\GitHub\monitor_ppd\03_datos_limpios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04F1DE-1CD6-47E5-8ECB-91DC8C16F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8306F-EBA3-4932-A283-153751993F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4683,10 +4683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J241" sqref="J241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4792,7 +4793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>73</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>72</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>74</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>81</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>77</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>78</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>79</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>80</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>66</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>70</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>188</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>174</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>267</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>270</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>175</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>277</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>278</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>279</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>280</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>268</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>272</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>273</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>274</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>309</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>308</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>390</v>
       </c>
@@ -6335,7 +6336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>379</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>384</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>492</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>495</v>
       </c>
@@ -6577,7 +6578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>496</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>694</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>698</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>700</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>701</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>703</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>764</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>765</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>766</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>767</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>768</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>798</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>809</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>811</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>812</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>808</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>810</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>813</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>816</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>817</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>913</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1133</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1134</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1172</v>
       </c>
@@ -8019,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1174</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1127</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1129</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1703</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1171</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1422</v>
       </c>
@@ -8388,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1424</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1721</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1595</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1723</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1729</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1731</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1732</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1687</v>
       </c>
@@ -8848,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1707</v>
       </c>
@@ -8916,7 +8917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1733</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1736</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1727</v>
       </c>
@@ -9099,7 +9100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2103</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2069</v>
       </c>
@@ -9220,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2070</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2180</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2071</v>
       </c>
@@ -9388,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2093</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2106</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2107</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2181</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2182</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2183</v>
       </c>
@@ -9748,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2277</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2240</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2274</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2299</v>
       </c>
@@ -9972,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2300</v>
       </c>
@@ -10028,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2307</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2445</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2355</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2359</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2452</v>
       </c>
@@ -10423,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2459</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2434</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2462</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2463</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2464</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2500</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2501</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2502</v>
       </c>
@@ -10865,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2506</v>
       </c>
@@ -10918,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2507</v>
       </c>
@@ -10980,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2624</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2625</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2948</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2915</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2968</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2969</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2970</v>
       </c>
@@ -11419,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>3078</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2995</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>3097</v>
       </c>
@@ -11581,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>3099</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>3102</v>
       </c>
@@ -11737,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>3273</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>3274</v>
       </c>
@@ -11849,7 +11850,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>3277</v>
       </c>
@@ -11911,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>3291</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>3287</v>
       </c>
@@ -12017,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>3288</v>
       </c>
@@ -12070,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>3289</v>
       </c>
@@ -12126,7 +12127,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>3421</v>
       </c>
@@ -12182,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>3417</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>3419</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>3572</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>3569</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>3578</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>3580</v>
       </c>
@@ -12536,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>3582</v>
       </c>
@@ -12589,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>3584</v>
       </c>
@@ -12645,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>3586</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>3588</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>3883</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>3886</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>3887</v>
       </c>
@@ -12946,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>3891</v>
       </c>
@@ -13002,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>3910</v>
       </c>
@@ -13058,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>3881</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>3884</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>3885</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>3888</v>
       </c>
@@ -13291,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>3889</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>3890</v>
       </c>
@@ -13418,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>3925</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>3928</v>
       </c>
@@ -13530,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>3934</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>3932</v>
       </c>
@@ -13651,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>3933</v>
       </c>
@@ -13707,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>4207</v>
       </c>
@@ -13763,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>4208</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>4211</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>4213</v>
       </c>
@@ -13925,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>4193</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>4203</v>
       </c>
@@ -14049,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>4204</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>4414</v>
       </c>
@@ -14158,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>4755</v>
       </c>
@@ -14214,7 +14215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>4408</v>
       </c>
@@ -14276,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>4411</v>
       </c>
@@ -14329,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>4412</v>
       </c>
@@ -14391,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>4413</v>
       </c>
@@ -14447,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>4464</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>4485</v>
       </c>
@@ -14562,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>4486</v>
       </c>
@@ -14618,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>4488</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>4480</v>
       </c>
@@ -14730,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>4481</v>
       </c>
@@ -14786,7 +14787,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>4482</v>
       </c>
@@ -14848,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>4484</v>
       </c>
@@ -14904,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>4540</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>4544</v>
       </c>
@@ -15028,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>4585</v>
       </c>
@@ -15084,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>4578</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>4580</v>
       </c>
@@ -15205,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>4581</v>
       </c>
@@ -15261,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>4582</v>
       </c>
@@ -15329,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>4586</v>
       </c>
@@ -15382,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>4623</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>4624</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>4625</v>
       </c>
@@ -15562,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>4631</v>
       </c>
@@ -15618,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>4633</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>4634</v>
       </c>
@@ -15724,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>4636</v>
       </c>
@@ -15827,7 +15828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>4746</v>
       </c>
@@ -15883,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>4749</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>4756</v>
       </c>
@@ -15995,7 +15996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>4757</v>
       </c>
@@ -16048,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>4758</v>
       </c>
@@ -16101,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>4752</v>
       </c>
@@ -16154,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>4753</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>4754</v>
       </c>
@@ -16263,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>4805</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>4815</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>4820</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>4823</v>
       </c>
@@ -16490,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>4814</v>
       </c>
@@ -16546,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>4817</v>
       </c>
@@ -16652,7 +16653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>4821</v>
       </c>
@@ -16711,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>4917</v>
       </c>
@@ -16767,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>4918</v>
       </c>
@@ -16820,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>4919</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>4921</v>
       </c>
@@ -16932,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>4928</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>4929</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>4931</v>
       </c>
@@ -17097,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>4932</v>
       </c>
@@ -17203,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>4922</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>4924</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>4925</v>
       </c>
@@ -17377,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>5230</v>
       </c>
@@ -17451,7 +17452,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>5231</v>
       </c>
@@ -17563,7 +17564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>5235</v>
       </c>
@@ -17619,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>5237</v>
       </c>
@@ -17731,7 +17732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>5239</v>
       </c>
@@ -17837,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>5271</v>
       </c>
@@ -17896,7 +17897,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>5272</v>
       </c>
@@ -17952,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>5273</v>
       </c>
@@ -18008,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>5274</v>
       </c>
@@ -18064,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>5275</v>
       </c>
@@ -18123,7 +18124,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>5278</v>
       </c>
@@ -18179,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>5279</v>
       </c>
@@ -18235,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>5280</v>
       </c>
@@ -18291,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>5282</v>
       </c>
@@ -18347,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>5295</v>
       </c>
@@ -18400,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>5296</v>
       </c>
@@ -18456,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>5297</v>
       </c>
@@ -18662,7 +18663,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>5242</v>
       </c>
@@ -18742,7 +18743,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>5249</v>
       </c>
@@ -18810,7 +18811,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>5251</v>
       </c>
@@ -18878,7 +18879,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>5253</v>
       </c>
@@ -18940,7 +18941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>5255</v>
       </c>
@@ -19002,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>5257</v>
       </c>
@@ -19158,7 +19159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>5265</v>
       </c>
@@ -19267,7 +19268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>5283</v>
       </c>
@@ -19332,7 +19333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>5287</v>
       </c>
@@ -19394,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>5416</v>
       </c>
@@ -19447,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>5599</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>5362</v>
       </c>
@@ -19621,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>5365</v>
       </c>
@@ -19683,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>5366</v>
       </c>
@@ -19736,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>5367</v>
       </c>
@@ -19792,7 +19793,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>5368</v>
       </c>
@@ -19854,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>5369</v>
       </c>
@@ -19916,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>5403</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>5404</v>
       </c>
@@ -20028,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>5410</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>5419</v>
       </c>
@@ -20137,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>5401</v>
       </c>
@@ -20249,7 +20250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>5619</v>
       </c>
@@ -20305,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>5866</v>
       </c>
@@ -20367,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>5845</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>5750</v>
       </c>
@@ -20482,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>5753</v>
       </c>
@@ -20538,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>5613</v>
       </c>
@@ -20600,7 +20601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>5612</v>
       </c>
@@ -20659,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>5610</v>
       </c>
@@ -20724,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>5607</v>
       </c>
@@ -20789,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>5603</v>
       </c>
@@ -20857,7 +20858,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>5863</v>
       </c>
@@ -20969,7 +20970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>5869</v>
       </c>
@@ -21025,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>5868</v>
       </c>
@@ -21131,7 +21132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>5747</v>
       </c>
@@ -21190,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>6130</v>
       </c>
@@ -21246,7 +21247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>6120</v>
       </c>
@@ -21302,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>6118</v>
       </c>
@@ -21408,7 +21409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>6110</v>
       </c>
@@ -21470,7 +21471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>5862</v>
       </c>
@@ -21579,7 +21580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>9020</v>
       </c>
@@ -21632,7 +21633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>6267</v>
       </c>
@@ -21685,7 +21686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>6365</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>6364</v>
       </c>
@@ -21847,7 +21848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>6126</v>
       </c>
@@ -21953,7 +21954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>6123</v>
       </c>
@@ -22006,7 +22007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>6121</v>
       </c>
@@ -22059,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>6367</v>
       </c>
@@ -22115,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>6366</v>
       </c>
@@ -22218,7 +22219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>6363</v>
       </c>
@@ -22280,7 +22281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>6362</v>
       </c>
@@ -22342,7 +22343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>6361</v>
       </c>
@@ -22404,7 +22405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>6358</v>
       </c>
@@ -22466,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>6369</v>
       </c>
@@ -22522,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>6368</v>
       </c>
@@ -22575,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>6344</v>
       </c>
@@ -22637,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>6576</v>
       </c>
@@ -22699,7 +22700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>6571</v>
       </c>
@@ -22755,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>6684</v>
       </c>
@@ -22811,7 +22812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>6573</v>
       </c>
@@ -22870,7 +22871,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>6360</v>
       </c>
@@ -22932,7 +22933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>6359</v>
       </c>
@@ -22994,7 +22995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>6357</v>
       </c>
@@ -23050,7 +23051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>6351</v>
       </c>
@@ -23115,7 +23116,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>6349</v>
       </c>
@@ -23174,7 +23175,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>6678</v>
       </c>
@@ -23236,7 +23237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>6677</v>
       </c>
@@ -23298,7 +23299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>6676</v>
       </c>
@@ -23360,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>6675</v>
       </c>
@@ -23422,7 +23423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>6687</v>
       </c>
@@ -23478,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>6686</v>
       </c>
@@ -23584,7 +23585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>6674</v>
       </c>
@@ -23646,7 +23647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>6666</v>
       </c>
@@ -23708,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>6642</v>
       </c>
@@ -23761,7 +23762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>6575</v>
       </c>
@@ -23814,7 +23815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>6574</v>
       </c>
@@ -23876,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>6572</v>
       </c>
@@ -23932,7 +23933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>6570</v>
       </c>
@@ -23985,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>6798</v>
       </c>
@@ -24044,7 +24045,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>6849</v>
       </c>
@@ -24100,7 +24101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>6832</v>
       </c>
@@ -24203,7 +24204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>6683</v>
       </c>
@@ -24256,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>6682</v>
       </c>
@@ -24309,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>6681</v>
       </c>
@@ -24412,7 +24413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>6679</v>
       </c>
@@ -24465,7 +24466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>7056</v>
       </c>
@@ -24571,7 +24572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>6843</v>
       </c>
@@ -24630,7 +24631,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="348" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>6842</v>
       </c>
@@ -24686,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>6837</v>
       </c>
@@ -24751,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>6835</v>
       </c>
@@ -24863,7 +24864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>6797</v>
       </c>
@@ -24922,7 +24923,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="353" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>7055</v>
       </c>
@@ -24984,7 +24985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>7039</v>
       </c>
@@ -25096,7 +25097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>7392</v>
       </c>
@@ -25155,7 +25156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>7052</v>
       </c>
@@ -25208,7 +25209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>7051</v>
       </c>
@@ -25264,7 +25265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>7047</v>
       </c>
@@ -25323,7 +25324,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="360" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>7046</v>
       </c>
@@ -25382,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>7224</v>
       </c>
@@ -25438,7 +25439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>7223</v>
       </c>
@@ -25491,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>7221</v>
       </c>
@@ -25547,7 +25548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>7222</v>
       </c>
@@ -25603,7 +25604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>7414</v>
       </c>
@@ -25659,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>7413</v>
       </c>
@@ -25715,7 +25716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>7412</v>
       </c>
@@ -25768,7 +25769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>7390</v>
       </c>
@@ -25830,7 +25831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>7384</v>
       </c>
@@ -25892,7 +25893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>7220</v>
       </c>
@@ -25954,7 +25955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>7407</v>
       </c>
@@ -26013,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>7406</v>
       </c>
@@ -26125,7 +26126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>7418</v>
       </c>
@@ -26178,7 +26179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>7417</v>
       </c>
@@ -26231,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>7416</v>
       </c>
@@ -26287,7 +26288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>7410</v>
       </c>
@@ -26343,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>7409</v>
       </c>
@@ -26396,7 +26397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>7395</v>
       </c>
@@ -26458,7 +26459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>7394</v>
       </c>
@@ -26520,7 +26521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>7393</v>
       </c>
@@ -26585,7 +26586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>7602</v>
       </c>
@@ -26638,7 +26639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>7601</v>
       </c>
@@ -26694,7 +26695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>7599</v>
       </c>
@@ -26750,7 +26751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>7598</v>
       </c>
@@ -26806,7 +26807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>7596</v>
       </c>
@@ -26862,7 +26863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>7594</v>
       </c>
@@ -26918,7 +26919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>7408</v>
       </c>
@@ -26974,7 +26975,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="389" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>7405</v>
       </c>
@@ -27036,7 +27037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>7401</v>
       </c>
@@ -27148,7 +27149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>7586</v>
       </c>
@@ -27210,7 +27211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>7591</v>
       </c>
@@ -27263,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>7592</v>
       </c>
@@ -27316,7 +27317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>7778</v>
       </c>
@@ -27378,7 +27379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>7789</v>
       </c>
@@ -27434,7 +27435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>7790</v>
       </c>
@@ -27490,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>7883</v>
       </c>
@@ -27546,7 +27547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>7774</v>
       </c>
@@ -27605,7 +27606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>7776</v>
       </c>
@@ -27667,7 +27668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>7891</v>
       </c>
@@ -27726,7 +27727,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="402" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>7911</v>
       </c>
@@ -27788,7 +27789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>7916</v>
       </c>
@@ -27850,7 +27851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>7917</v>
       </c>
@@ -27912,7 +27913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>7919</v>
       </c>
@@ -27968,7 +27969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>7920</v>
       </c>
@@ -28021,7 +28022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>7921</v>
       </c>
@@ -28077,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>7922</v>
       </c>
@@ -28139,7 +28140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>8025</v>
       </c>
@@ -28201,7 +28202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>8027</v>
       </c>
@@ -28263,7 +28264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>8028</v>
       </c>
@@ -28325,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>8131</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>8132</v>
       </c>
@@ -28434,7 +28435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>8133</v>
       </c>
@@ -28490,7 +28491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>8127</v>
       </c>
@@ -28546,7 +28547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>8130</v>
       </c>
@@ -28602,7 +28603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>8265</v>
       </c>
@@ -28667,7 +28668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>8279</v>
       </c>
@@ -28723,7 +28724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>8280</v>
       </c>
@@ -28785,7 +28786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>8282</v>
       </c>
@@ -28847,7 +28848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>8288</v>
       </c>
@@ -28906,7 +28907,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>8289</v>
       </c>
@@ -28965,7 +28966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>8276</v>
       </c>
@@ -29018,7 +29019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>8277</v>
       </c>
@@ -29080,7 +29081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>8283</v>
       </c>
@@ -29133,7 +29134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>8286</v>
       </c>
@@ -29189,7 +29190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>8418</v>
       </c>
@@ -29251,7 +29252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>8421</v>
       </c>
@@ -29307,7 +29308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>8424</v>
       </c>
@@ -29360,7 +29361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>8426</v>
       </c>
@@ -29413,7 +29414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>8852</v>
       </c>
@@ -29466,7 +29467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>8408</v>
       </c>
@@ -29528,7 +29529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>8410</v>
       </c>
@@ -29581,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>8416</v>
       </c>
@@ -29643,7 +29644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>8419</v>
       </c>
@@ -29705,7 +29706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>8429</v>
       </c>
@@ -29758,7 +29759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>8430</v>
       </c>
@@ -29811,7 +29812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>8854</v>
       </c>
@@ -29864,7 +29865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>8818</v>
       </c>
@@ -29926,7 +29927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>8837</v>
       </c>
@@ -29982,7 +29983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>8849</v>
       </c>
@@ -30038,7 +30039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>8835</v>
       </c>
@@ -30100,7 +30101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>8836</v>
       </c>
@@ -30165,7 +30166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>8844</v>
       </c>
@@ -30221,7 +30222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>8846</v>
       </c>
@@ -30277,7 +30278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>8848</v>
       </c>
@@ -30333,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>8831</v>
       </c>
@@ -30389,7 +30390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>8833</v>
       </c>
@@ -30451,7 +30452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>8834</v>
       </c>
@@ -30513,7 +30514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>8841</v>
       </c>
@@ -30566,7 +30567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>8842</v>
       </c>
@@ -30628,7 +30629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>9019</v>
       </c>
@@ -30684,7 +30685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>9025</v>
       </c>
@@ -30743,7 +30744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>9404</v>
       </c>
@@ -30799,7 +30800,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="455" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>9405</v>
       </c>
@@ -30858,7 +30859,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="456" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>9689</v>
       </c>
@@ -30923,7 +30924,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="457" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>9698</v>
       </c>
@@ -30976,7 +30977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>9700</v>
       </c>
@@ -31029,7 +31030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>9702</v>
       </c>
@@ -31082,7 +31083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>9708</v>
       </c>
@@ -31135,7 +31136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>9759</v>
       </c>
@@ -31194,7 +31195,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="462" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>9767</v>
       </c>
@@ -31253,7 +31254,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="463" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>9766</v>
       </c>
@@ -31306,7 +31307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>9832</v>
       </c>
@@ -31362,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>9833</v>
       </c>
@@ -31418,7 +31419,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="466" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>9953</v>
       </c>
@@ -31474,7 +31475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>9990</v>
       </c>
@@ -31530,7 +31531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>9991</v>
       </c>
@@ -31586,7 +31587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>9995</v>
       </c>
@@ -31639,7 +31640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>9985</v>
       </c>
@@ -31701,7 +31702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>9987</v>
       </c>
@@ -31763,7 +31764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>9988</v>
       </c>
@@ -31825,7 +31826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>9989</v>
       </c>
@@ -31881,7 +31882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>9992</v>
       </c>
@@ -31937,7 +31938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>9994</v>
       </c>
@@ -31993,7 +31994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>9977</v>
       </c>
@@ -32049,7 +32050,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="477" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>9978</v>
       </c>
@@ -32111,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>9979</v>
       </c>
@@ -32173,7 +32174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>9980</v>
       </c>
@@ -32238,7 +32239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>9981</v>
       </c>
@@ -32300,7 +32301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>9982</v>
       </c>
@@ -32362,7 +32363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>9983</v>
       </c>
@@ -32424,7 +32425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>9984</v>
       </c>
@@ -32486,7 +32487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>10062</v>
       </c>
@@ -32548,7 +32549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>10059</v>
       </c>
@@ -32601,7 +32602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>10060</v>
       </c>
@@ -32660,7 +32661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>10061</v>
       </c>
@@ -32722,7 +32723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>10064</v>
       </c>
@@ -32778,7 +32779,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="489" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>10065</v>
       </c>
@@ -32834,7 +32835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>10102</v>
       </c>
@@ -32890,7 +32891,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="491" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>10112</v>
       </c>
@@ -32955,7 +32956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>10108</v>
       </c>
@@ -33008,7 +33009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>10109</v>
       </c>
@@ -33070,7 +33071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>10110</v>
       </c>
@@ -33132,7 +33133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>10111</v>
       </c>
@@ -33194,7 +33195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>10238</v>
       </c>
@@ -33256,7 +33257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>10242</v>
       </c>
@@ -33315,7 +33316,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="498" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>10244</v>
       </c>
@@ -33374,7 +33375,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="499" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>10245</v>
       </c>
@@ -33430,7 +33431,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="500" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>10236</v>
       </c>
@@ -33495,7 +33496,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="501" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>10237</v>
       </c>
@@ -33545,7 +33546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>10239</v>
       </c>
@@ -33598,7 +33599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>10630</v>
       </c>
@@ -33660,7 +33661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>10634</v>
       </c>
@@ -33728,7 +33729,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="505" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>10722</v>
       </c>
@@ -33787,7 +33788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>10723</v>
       </c>
@@ -33849,7 +33850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>10724</v>
       </c>
@@ -33911,7 +33912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>10725</v>
       </c>
@@ -33973,7 +33974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>10726</v>
       </c>
@@ -34035,7 +34036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>10727</v>
       </c>
@@ -34097,7 +34098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>10728</v>
       </c>
@@ -34159,7 +34160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>10729</v>
       </c>
@@ -34221,7 +34222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>10730</v>
       </c>
@@ -34283,7 +34284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>10731</v>
       </c>
@@ -34345,7 +34346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>10732</v>
       </c>
@@ -34451,7 +34452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>10735</v>
       </c>
@@ -34507,7 +34508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>10736</v>
       </c>
@@ -34563,7 +34564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>10815</v>
       </c>
@@ -34619,7 +34620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>10817</v>
       </c>
@@ -34675,7 +34676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>10818</v>
       </c>
@@ -34737,7 +34738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>10819</v>
       </c>
@@ -34799,7 +34800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>10820</v>
       </c>
@@ -34861,7 +34862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>10821</v>
       </c>
@@ -34917,7 +34918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>10822</v>
       </c>
@@ -34973,7 +34974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>11151</v>
       </c>
@@ -35026,7 +35027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>10655</v>
       </c>
@@ -35088,7 +35089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>10667</v>
       </c>
@@ -35150,7 +35151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>10805</v>
       </c>
@@ -35203,7 +35204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>10806</v>
       </c>
@@ -35259,7 +35260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>10807</v>
       </c>
@@ -35312,7 +35313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>10808</v>
       </c>
@@ -35374,7 +35375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>10809</v>
       </c>
@@ -35427,7 +35428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>10810</v>
       </c>
@@ -35533,7 +35534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>10813</v>
       </c>
@@ -35586,7 +35587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>10814</v>
       </c>
@@ -35639,7 +35640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>10816</v>
       </c>
@@ -35695,7 +35696,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="539" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>10739</v>
       </c>
@@ -35757,7 +35758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>10743</v>
       </c>
@@ -35819,7 +35820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>10744</v>
       </c>
@@ -35881,7 +35882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>10745</v>
       </c>
@@ -35943,7 +35944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>10800</v>
       </c>
@@ -36005,7 +36006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>10801</v>
       </c>
@@ -36067,7 +36068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>10802</v>
       </c>
@@ -36173,7 +36174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>10804</v>
       </c>
@@ -36235,7 +36236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>10721</v>
       </c>
@@ -36297,7 +36298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>10737</v>
       </c>
@@ -36350,7 +36351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>10738</v>
       </c>
@@ -36412,7 +36413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>10740</v>
       </c>
@@ -36468,7 +36469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>10742</v>
       </c>
@@ -36530,7 +36531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>10833</v>
       </c>
@@ -36636,7 +36637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>10824</v>
       </c>
@@ -36698,7 +36699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>10825</v>
       </c>
@@ -36760,7 +36761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>10826</v>
       </c>
@@ -36822,7 +36823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>10827</v>
       </c>
@@ -36884,7 +36885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>10829</v>
       </c>
@@ -36946,7 +36947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>10830</v>
       </c>
@@ -36999,7 +37000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>10831</v>
       </c>
@@ -37055,7 +37056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>10832</v>
       </c>
@@ -37111,7 +37112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>10933</v>
       </c>
@@ -37176,7 +37177,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="564" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>10936</v>
       </c>
@@ -37232,7 +37233,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="565" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>10937</v>
       </c>
@@ -37294,7 +37295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>11064</v>
       </c>
@@ -37347,7 +37348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>11065</v>
       </c>
@@ -37409,7 +37410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>11066</v>
       </c>
@@ -37465,7 +37466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>11137</v>
       </c>
@@ -37577,7 +37578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>11059</v>
       </c>
@@ -37633,7 +37634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>11063</v>
       </c>
@@ -37695,7 +37696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>11173</v>
       </c>
@@ -37751,7 +37752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>11152</v>
       </c>
@@ -37807,7 +37808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>11153</v>
       </c>
@@ -37860,7 +37861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>11155</v>
       </c>
@@ -37916,7 +37917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>11156</v>
       </c>
@@ -37978,7 +37979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>11157</v>
       </c>
@@ -38043,7 +38044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>11158</v>
       </c>
@@ -38105,7 +38106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>11159</v>
       </c>
@@ -38167,7 +38168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>11160</v>
       </c>
@@ -38229,7 +38230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>11161</v>
       </c>
@@ -38291,7 +38292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>11162</v>
       </c>
@@ -38350,7 +38351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>11163</v>
       </c>
@@ -38412,7 +38413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>11164</v>
       </c>
@@ -38468,7 +38469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>11165</v>
       </c>
@@ -38521,7 +38522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>11166</v>
       </c>
@@ -38583,7 +38584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>11168</v>
       </c>
@@ -38742,7 +38743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>11150</v>
       </c>
@@ -38804,7 +38805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>11167</v>
       </c>
@@ -38866,7 +38867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>11412</v>
       </c>
@@ -38925,7 +38926,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="594" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>11414</v>
       </c>
@@ -38981,7 +38982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>11409</v>
       </c>
@@ -39043,7 +39044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>11538</v>
       </c>
@@ -39102,7 +39103,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="597" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>11560</v>
       </c>
@@ -39164,7 +39165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>11561</v>
       </c>
@@ -39223,7 +39224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>11584</v>
       </c>
@@ -39285,7 +39286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>11586</v>
       </c>
@@ -39347,7 +39348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>11588</v>
       </c>
@@ -39409,7 +39410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>11589</v>
       </c>
@@ -39471,7 +39472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>11591</v>
       </c>
@@ -39533,7 +39534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>11592</v>
       </c>
@@ -39595,7 +39596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>11593</v>
       </c>
@@ -39657,7 +39658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>11850</v>
       </c>
@@ -39716,7 +39717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>11859</v>
       </c>
@@ -39772,7 +39773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>11877</v>
       </c>
@@ -39875,7 +39876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>11864</v>
       </c>
@@ -39981,7 +39982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>11867</v>
       </c>
@@ -40040,7 +40041,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="613" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>11870</v>
       </c>
@@ -40093,7 +40094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>12094</v>
       </c>
@@ -40146,7 +40147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>12098</v>
       </c>
@@ -40202,7 +40203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>12133</v>
       </c>
@@ -40255,7 +40256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>12093</v>
       </c>
@@ -40308,7 +40309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>12096</v>
       </c>
@@ -40364,7 +40365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>12586</v>
       </c>
@@ -40423,7 +40424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>12667</v>
       </c>
@@ -40485,7 +40486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>12668</v>
       </c>
@@ -40547,7 +40548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>12669</v>
       </c>
@@ -40609,7 +40610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>12673</v>
       </c>
@@ -40665,7 +40666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>12674</v>
       </c>
@@ -40727,7 +40728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>12675</v>
       </c>
@@ -40789,7 +40790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>12676</v>
       </c>
@@ -40851,7 +40852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>12677</v>
       </c>
@@ -40913,7 +40914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>12678</v>
       </c>
@@ -40975,7 +40976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>12681</v>
       </c>
@@ -41028,7 +41029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>12682</v>
       </c>
@@ -41081,7 +41082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>12591</v>
       </c>
@@ -41140,7 +41141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>12593</v>
       </c>
@@ -41302,7 +41303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>12618</v>
       </c>
@@ -41364,7 +41365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>12624</v>
       </c>
@@ -41423,7 +41424,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="637" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>12626</v>
       </c>
@@ -41488,7 +41489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>12636</v>
       </c>
@@ -41541,7 +41542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>12639</v>
       </c>
@@ -41603,7 +41604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>12641</v>
       </c>
@@ -41665,7 +41666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>12651</v>
       </c>
@@ -41721,7 +41722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>12654</v>
       </c>
@@ -41774,7 +41775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>12662</v>
       </c>
@@ -41827,7 +41828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>12617</v>
       </c>
@@ -41889,7 +41890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>12630</v>
       </c>
@@ -42001,7 +42002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>12917</v>
       </c>
@@ -42057,7 +42058,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="648" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>12925</v>
       </c>
@@ -42119,7 +42120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>12928</v>
       </c>
@@ -42181,7 +42182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>12978</v>
       </c>
@@ -42234,7 +42235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>12979</v>
       </c>
@@ -42296,7 +42297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>12980</v>
       </c>
@@ -42358,7 +42359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>12981</v>
       </c>
@@ -42420,7 +42421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>12988</v>
       </c>
@@ -42476,7 +42477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>12983</v>
       </c>
@@ -42532,7 +42533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>12984</v>
       </c>
@@ -42588,7 +42589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>12985</v>
       </c>
@@ -42644,7 +42645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>12986</v>
       </c>
@@ -42706,7 +42707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>12987</v>
       </c>
@@ -42765,7 +42766,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="660" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>12989</v>
       </c>
@@ -42821,7 +42822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>13288</v>
       </c>
@@ -42880,7 +42881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>13294</v>
       </c>
@@ -42942,7 +42943,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="663" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>13305</v>
       </c>
@@ -42995,7 +42996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>13314</v>
       </c>
@@ -43048,7 +43049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>13315</v>
       </c>
@@ -43104,7 +43105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>13316</v>
       </c>
@@ -43166,7 +43167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>13318</v>
       </c>
@@ -43222,7 +43223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>13295</v>
       </c>
@@ -43284,7 +43285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>13301</v>
       </c>
@@ -43340,7 +43341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>13309</v>
       </c>
@@ -43396,7 +43397,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="671" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>13328</v>
       </c>
@@ -43458,7 +43459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>13334</v>
       </c>
@@ -43523,7 +43524,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="673" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>13326</v>
       </c>
@@ -43588,7 +43589,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="674" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>13327</v>
       </c>
@@ -43700,7 +43701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>13486</v>
       </c>
@@ -43762,7 +43763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>13487</v>
       </c>
@@ -43824,7 +43825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>13489</v>
       </c>
@@ -43880,7 +43881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>13509</v>
       </c>
@@ -43942,7 +43943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>13510</v>
       </c>
@@ -44004,7 +44005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>13511</v>
       </c>
@@ -44066,7 +44067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>13472</v>
       </c>
@@ -44228,7 +44229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>13507</v>
       </c>
@@ -44284,7 +44285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>13508</v>
       </c>
@@ -44340,7 +44341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>13512</v>
       </c>
@@ -44393,7 +44394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>13513</v>
       </c>
@@ -44449,7 +44450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>13514</v>
       </c>
@@ -44505,7 +44506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>13516</v>
       </c>
@@ -44558,7 +44559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>13475</v>
       </c>
@@ -44670,7 +44671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>13479</v>
       </c>
@@ -44726,7 +44727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>13480</v>
       </c>
@@ -44788,7 +44789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>13481</v>
       </c>
@@ -44850,7 +44851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>13482</v>
       </c>
@@ -44912,7 +44913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>13483</v>
       </c>
@@ -44974,7 +44975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>13484</v>
       </c>
@@ -45036,7 +45037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>13485</v>
       </c>
@@ -45098,7 +45099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>13515</v>
       </c>
@@ -45160,7 +45161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>13582</v>
       </c>
@@ -45222,7 +45223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>13595</v>
       </c>
@@ -45278,7 +45279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>13588</v>
       </c>
@@ -45393,7 +45394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>13592</v>
       </c>
@@ -45455,7 +45456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>13593</v>
       </c>
@@ -45511,7 +45512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>13651</v>
       </c>
@@ -45576,7 +45577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>13654</v>
       </c>
@@ -45632,7 +45633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>13642</v>
       </c>
@@ -45735,7 +45736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>13903</v>
       </c>
@@ -45800,7 +45801,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="712" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>13908</v>
       </c>
@@ -45862,7 +45863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>13909</v>
       </c>
@@ -45918,7 +45919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>13895</v>
       </c>
@@ -45980,7 +45981,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="715" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>13901</v>
       </c>
@@ -46133,7 +46134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>14212</v>
       </c>
@@ -46189,7 +46190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>14213</v>
       </c>
@@ -46245,7 +46246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>14199</v>
       </c>
@@ -46301,7 +46302,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="721" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>14200</v>
       </c>
@@ -46357,7 +46358,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="722" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>14201</v>
       </c>
@@ -46410,7 +46411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>14202</v>
       </c>
@@ -46469,7 +46470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>14204</v>
       </c>
@@ -46531,7 +46532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>14205</v>
       </c>
@@ -46593,7 +46594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>14206</v>
       </c>
@@ -46655,7 +46656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>14207</v>
       </c>
@@ -46717,7 +46718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>14208</v>
       </c>
@@ -46779,7 +46780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>14209</v>
       </c>
@@ -46841,7 +46842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>14210</v>
       </c>
@@ -46903,7 +46904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>14211</v>
       </c>
@@ -46965,7 +46966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>14192</v>
       </c>
@@ -47030,7 +47031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>14194</v>
       </c>
@@ -47092,7 +47093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>14195</v>
       </c>
@@ -47154,7 +47155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>14196</v>
       </c>
@@ -47216,7 +47217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>14197</v>
       </c>
@@ -47278,7 +47279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>14292</v>
       </c>
@@ -47340,7 +47341,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="738" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>14295</v>
       </c>
@@ -47502,7 +47503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>14298</v>
       </c>
@@ -47555,7 +47556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>14465</v>
       </c>
@@ -47617,7 +47618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>14471</v>
       </c>
@@ -47673,7 +47674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>14472</v>
       </c>
@@ -47735,7 +47736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>14473</v>
       </c>
@@ -47791,7 +47792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>14475</v>
       </c>
@@ -47844,7 +47845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>14476</v>
       </c>
@@ -47903,7 +47904,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="748" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>14468</v>
       </c>
@@ -47965,7 +47966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>14470</v>
       </c>
@@ -48030,7 +48031,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="750" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>14553</v>
       </c>
@@ -48083,7 +48084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>14739</v>
       </c>
@@ -48139,7 +48140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>14725</v>
       </c>
@@ -48201,7 +48202,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="753" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>14733</v>
       </c>
@@ -48257,7 +48258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>14734</v>
       </c>
@@ -48313,7 +48314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>14735</v>
       </c>
@@ -48366,7 +48367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>15217</v>
       </c>
@@ -48475,7 +48476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>15206</v>
       </c>
@@ -48531,7 +48532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>15207</v>
       </c>
@@ -48587,7 +48588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>15209</v>
       </c>
@@ -48652,7 +48653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>15214</v>
       </c>
@@ -48714,7 +48715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>15218</v>
       </c>
@@ -48826,7 +48827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>15226</v>
       </c>
@@ -48882,7 +48883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>15164</v>
       </c>
@@ -48938,7 +48939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>15166</v>
       </c>
@@ -48994,7 +48995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>15169</v>
       </c>
@@ -49056,7 +49057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:32" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>15204</v>
       </c>
@@ -49118,7 +49119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>15205</v>
       </c>
@@ -49174,7 +49175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>15227</v>
       </c>
@@ -49233,7 +49234,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="771" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>15161</v>
       </c>
@@ -49289,7 +49290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>15200</v>
       </c>
@@ -49351,7 +49352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>15201</v>
       </c>
@@ -49407,7 +49408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>15202</v>
       </c>
@@ -49463,7 +49464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>15193</v>
       </c>
@@ -49525,7 +49526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>15198</v>
       </c>
@@ -49584,7 +49585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>15199</v>
       </c>
@@ -49696,7 +49697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>15502</v>
       </c>
@@ -49758,7 +49759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>15504</v>
       </c>
@@ -49820,7 +49821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>15505</v>
       </c>
@@ -49882,7 +49883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>15506</v>
       </c>
@@ -49944,7 +49945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>15507</v>
       </c>
@@ -50006,7 +50007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>15508</v>
       </c>
@@ -50068,7 +50069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>15512</v>
       </c>
@@ -50127,7 +50128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>15513</v>
       </c>
@@ -50186,7 +50187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>15514</v>
       </c>
@@ -50241,6 +50242,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG787" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="30">
+      <filters>
+        <filter val="VERDADERO"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG787">
       <sortCondition ref="C1"/>
     </sortState>
